--- a/data/trans_dic/P34B03_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34B03_R-Estudios-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.083751034102306</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05040351527563807</v>
+        <v>0.05040351527563806</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.03192799789812516</v>
@@ -664,7 +664,7 @@
         <v>0.05420675404561595</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.033929822597592</v>
+        <v>0.03392982259759199</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03809922998230181</v>
+        <v>0.03906494829175374</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06469057015752472</v>
+        <v>0.06459205978965964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03618532960174182</v>
+        <v>0.03481658698455071</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02286774734707432</v>
+        <v>0.0229417461737379</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02139416875685341</v>
+        <v>0.02159632059681571</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01538251295915881</v>
+        <v>0.01508470079197847</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03315584646224135</v>
+        <v>0.0327233865718459</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0437950933054615</v>
+        <v>0.04412435395814438</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02566512267496955</v>
+        <v>0.02571632800839508</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06795938645543424</v>
+        <v>0.06987002962308747</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1039863826907362</v>
+        <v>0.1054405453202309</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07311815504315232</v>
+        <v>0.06967428844659515</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04306438940046819</v>
+        <v>0.04296474654699008</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04668040306109381</v>
+        <v>0.04454941512021802</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03158232448277527</v>
+        <v>0.03188389067712716</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04973103798207231</v>
+        <v>0.04999445512897971</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06605652051508872</v>
+        <v>0.06680009589231621</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04269089411975866</v>
+        <v>0.04340380400341154</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.1739655075958534</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1928415439012765</v>
+        <v>0.1928415439012764</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.06999956694458938</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1615671787970615</v>
+        <v>0.1608749642964341</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.158385459813357</v>
+        <v>0.1578943112580215</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1739838587330541</v>
+        <v>0.1728373860378042</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05859913502762001</v>
+        <v>0.05893247824073888</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08997682528722921</v>
+        <v>0.09066525303460476</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07128346884005057</v>
+        <v>0.07178911765032191</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1156044032265118</v>
+        <v>0.1166127106690849</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1291598555490197</v>
+        <v>0.1295609420116765</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1261474185276128</v>
+        <v>0.1267728296680775</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1964025572948309</v>
+        <v>0.1946810241077818</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1924288747253682</v>
+        <v>0.189432797497713</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2138743480231479</v>
+        <v>0.2127022134757234</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08428737299110059</v>
+        <v>0.08276519274260016</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1177467896076327</v>
+        <v>0.1183219677139391</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09490582027981131</v>
+        <v>0.09691753082268992</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1386065136543327</v>
+        <v>0.1382821833653013</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1502124615961669</v>
+        <v>0.1523745923981612</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1514148971615698</v>
+        <v>0.1517108235074703</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.2625448686020416</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2217017025470406</v>
+        <v>0.2217017025470405</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1439625763650208</v>
@@ -882,7 +882,7 @@
         <v>0.2183619748701019</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1946687964057015</v>
+        <v>0.1946687964057014</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2348275488826005</v>
+        <v>0.2323622818054292</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.225200845765339</v>
+        <v>0.2236790131421777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1901708466620144</v>
+        <v>0.1865507883344043</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1125859853629525</v>
+        <v>0.1072061335987232</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1445501123232235</v>
+        <v>0.1451485949087566</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1427612257918354</v>
+        <v>0.1458797259637122</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1845905219227119</v>
+        <v>0.1859165169089478</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1931829152199472</v>
+        <v>0.1929132568784964</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1730568304376091</v>
+        <v>0.1746952552749908</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3230448251775639</v>
+        <v>0.3217027568360914</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3059482892841094</v>
+        <v>0.3028286175955363</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2584728126743085</v>
+        <v>0.2547822502960853</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.181714254792494</v>
+        <v>0.1821439848821067</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2120258161751958</v>
+        <v>0.2081557734848218</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1967644514205465</v>
+        <v>0.1958263960262178</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2420458734866006</v>
+        <v>0.2421043058476253</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2479122811806023</v>
+        <v>0.2457543524924429</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.217430574959561</v>
+        <v>0.218311079171378</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1429711172054253</v>
+        <v>0.1438477313897129</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1559547914017702</v>
+        <v>0.1553752816464438</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1602108024526271</v>
+        <v>0.16069435133303</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05731774784342038</v>
+        <v>0.05723037243723993</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08490648790068561</v>
+        <v>0.0841478425231188</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07735437789738277</v>
+        <v>0.07759033099392235</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1013563093873118</v>
+        <v>0.1015795750009778</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1231097739345983</v>
+        <v>0.1224111000052737</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1203228242834291</v>
+        <v>0.1214310322128866</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1694686035000409</v>
+        <v>0.1696342252499753</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1820756801666567</v>
+        <v>0.1824697938030052</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1911725735930299</v>
+        <v>0.192058191888024</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07451489251090752</v>
+        <v>0.07442440107659294</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1050646237269585</v>
+        <v>0.1043626107172552</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09639577734455028</v>
+        <v>0.09572928178078555</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.117553481638605</v>
+        <v>0.1168018913920703</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1391457129979125</v>
+        <v>0.1391952636134723</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1383312148514366</v>
+        <v>0.1386956561782788</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>37054</v>
+        <v>37994</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>48799</v>
+        <v>48725</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>20934</v>
+        <v>20142</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30592</v>
+        <v>30691</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21280</v>
+        <v>21481</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12624</v>
+        <v>12380</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>76602</v>
+        <v>75603</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>76598</v>
+        <v>77174</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>35911</v>
+        <v>35983</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>66096</v>
+        <v>67954</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>78442</v>
+        <v>79539</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>42301</v>
+        <v>40309</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>57611</v>
+        <v>57478</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>46431</v>
+        <v>44312</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25919</v>
+        <v>26167</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>114897</v>
+        <v>115506</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>115533</v>
+        <v>116834</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>59734</v>
+        <v>60732</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>317311</v>
+        <v>315952</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>328869</v>
+        <v>327849</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>387720</v>
+        <v>385166</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>102895</v>
+        <v>103480</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>178901</v>
+        <v>180270</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>154589</v>
+        <v>155686</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>430033</v>
+        <v>433784</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>524994</v>
+        <v>526624</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>554687</v>
+        <v>557437</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>385726</v>
+        <v>382345</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>399556</v>
+        <v>393335</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>476616</v>
+        <v>474004</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>148001</v>
+        <v>145328</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>234116</v>
+        <v>235260</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>205818</v>
+        <v>210180</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>515598</v>
+        <v>514391</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>610566</v>
+        <v>619355</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>665792</v>
+        <v>667093</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>112995</v>
+        <v>111808</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>123159</v>
+        <v>122327</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>135323</v>
+        <v>132747</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>51635</v>
+        <v>49168</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>79378</v>
+        <v>79707</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>104912</v>
+        <v>107204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>173481</v>
+        <v>174727</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>211734</v>
+        <v>211438</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>250320</v>
+        <v>252690</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>155443</v>
+        <v>154797</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>167319</v>
+        <v>165613</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>183926</v>
+        <v>181300</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>83340</v>
+        <v>83537</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>116432</v>
+        <v>114307</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>144598</v>
+        <v>143908</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>227478</v>
+        <v>227533</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>271719</v>
+        <v>269353</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>314505</v>
+        <v>315779</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>488634</v>
+        <v>491630</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>526756</v>
+        <v>524798</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>563718</v>
+        <v>565419</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>203612</v>
+        <v>203302</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>299898</v>
+        <v>297219</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>288085</v>
+        <v>288964</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>706459</v>
+        <v>708015</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>850654</v>
+        <v>845826</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>871477</v>
+        <v>879504</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>579195</v>
+        <v>579761</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>614982</v>
+        <v>616313</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>672660</v>
+        <v>675776</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>264702</v>
+        <v>264381</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>371099</v>
+        <v>368619</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>359000</v>
+        <v>356517</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>819354</v>
+        <v>814115</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>961458</v>
+        <v>961800</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1001909</v>
+        <v>1004549</v>
       </c>
     </row>
     <row r="20">
